--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32947.05883093729</v>
+        <v>6556464.707356523</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32947.05883093729</v>
+        <v>6556464.707356523</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9917.195812097663</v>
+        <v>596804.7795193541</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9917.195812097663</v>
+        <v>596804.7795193541</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112792056.144782</v>
+        <v>45641295.00029299</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10147.1624898754</v>
+        <v>1090335.095323211</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19224.20892852361</v>
+        <v>2003383.449564341</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28301.2553671718</v>
+        <v>2916431.803805473</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37853.12100240446</v>
+        <v>3799103.375429225</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47404.98663763709</v>
+        <v>4681774.947052977</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56602.55027951171</v>
+        <v>5594848.476786027</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65799.9874113767</v>
+        <v>6507896.831027155</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74997.42454324165</v>
+        <v>7420945.185268283</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84379.88195702694</v>
+        <v>8303221.090767398</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93787.41133536736</v>
+        <v>9190486.317212978</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103009.9204317874</v>
+        <v>10108523.99240058</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112207.3575636522</v>
+        <v>11021572.34664172</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121404.7946955171</v>
+        <v>11934620.70088285</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130956.5338207401</v>
+        <v>12817267.09701469</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140508.3994559727</v>
+        <v>13699938.66863845</v>
       </c>
     </row>
   </sheetData>
